--- a/patient_data/patient_94.xlsx
+++ b/patient_data/patient_94.xlsx
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2109,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2186,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2340,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2384,16 +2384,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
